--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3303.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3303.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9371665375739893</v>
+        <v>0.2578893899917603</v>
       </c>
       <c r="B1">
-        <v>1.62862282891683</v>
+        <v>0.1907126903533936</v>
       </c>
       <c r="C1">
-        <v>2.239741728862265</v>
+        <v>0.299547404050827</v>
       </c>
       <c r="D1">
-        <v>2.647866294467663</v>
+        <v>3.94853949546814</v>
       </c>
       <c r="E1">
-        <v>3.25594630487102</v>
+        <v>1.696321964263916</v>
       </c>
     </row>
   </sheetData>
